--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema4a-Plxnd1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.8949631035265</v>
+        <v>26.83824466666667</v>
       </c>
       <c r="H2">
-        <v>13.8949631035265</v>
+        <v>80.514734</v>
       </c>
       <c r="I2">
-        <v>0.816831015957699</v>
+        <v>0.8882651037973995</v>
       </c>
       <c r="J2">
-        <v>0.816831015957699</v>
+        <v>0.8882651037973996</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.6476651354505</v>
+        <v>73.19890333333333</v>
       </c>
       <c r="N2">
-        <v>39.6476651354505</v>
+        <v>219.59671</v>
       </c>
       <c r="O2">
-        <v>0.5143171353280561</v>
+        <v>0.6596328743217019</v>
       </c>
       <c r="P2">
-        <v>0.5143171353280561</v>
+        <v>0.6596328743217019</v>
       </c>
       <c r="Q2">
-        <v>550.9028441980587</v>
+        <v>1964.530076991682</v>
       </c>
       <c r="R2">
-        <v>550.9028441980587</v>
+        <v>17680.77069292514</v>
       </c>
       <c r="S2">
-        <v>0.4201101881744694</v>
+        <v>0.5859288635775436</v>
       </c>
       <c r="T2">
-        <v>0.4201101881744694</v>
+        <v>0.5859288635775436</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.8949631035265</v>
+        <v>26.83824466666667</v>
       </c>
       <c r="H3">
-        <v>13.8949631035265</v>
+        <v>80.514734</v>
       </c>
       <c r="I3">
-        <v>0.816831015957699</v>
+        <v>0.8882651037973995</v>
       </c>
       <c r="J3">
-        <v>0.816831015957699</v>
+        <v>0.8882651037973996</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.56537544410517</v>
+        <v>9.661646333333335</v>
       </c>
       <c r="N3">
-        <v>9.56537544410517</v>
+        <v>28.984939</v>
       </c>
       <c r="O3">
-        <v>0.1240838894280982</v>
+        <v>0.08706605224007774</v>
       </c>
       <c r="P3">
-        <v>0.1240838894280982</v>
+        <v>0.08706605224007773</v>
       </c>
       <c r="Q3">
-        <v>132.9105388672197</v>
+        <v>259.301628176803</v>
       </c>
       <c r="R3">
-        <v>132.9105388672197</v>
+        <v>2333.714653591227</v>
       </c>
       <c r="S3">
-        <v>0.1013555694655362</v>
+        <v>0.07733773593026247</v>
       </c>
       <c r="T3">
-        <v>0.1013555694655362</v>
+        <v>0.07733773593026246</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.8949631035265</v>
+        <v>26.83824466666667</v>
       </c>
       <c r="H4">
-        <v>13.8949631035265</v>
+        <v>80.514734</v>
       </c>
       <c r="I4">
-        <v>0.816831015957699</v>
+        <v>0.8882651037973995</v>
       </c>
       <c r="J4">
-        <v>0.816831015957699</v>
+        <v>0.8882651037973996</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.8749318251773</v>
+        <v>28.10860633333333</v>
       </c>
       <c r="N4">
-        <v>27.8749318251773</v>
+        <v>84.325819</v>
       </c>
       <c r="O4">
-        <v>0.3615989752438457</v>
+        <v>0.2533010734382203</v>
       </c>
       <c r="P4">
-        <v>0.3615989752438457</v>
+        <v>0.2533010734382204</v>
       </c>
       <c r="Q4">
-        <v>387.3211492241552</v>
+        <v>754.3856540130162</v>
       </c>
       <c r="R4">
-        <v>387.3211492241552</v>
+        <v>6789.470886117146</v>
       </c>
       <c r="S4">
-        <v>0.2953652583176933</v>
+        <v>0.2249985042895935</v>
       </c>
       <c r="T4">
-        <v>0.2953652583176933</v>
+        <v>0.2249985042895936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.22019130026345</v>
+        <v>1.239011</v>
       </c>
       <c r="H5">
-        <v>1.22019130026345</v>
+        <v>3.717033</v>
       </c>
       <c r="I5">
-        <v>0.0717303163765856</v>
+        <v>0.04100753414354395</v>
       </c>
       <c r="J5">
-        <v>0.0717303163765856</v>
+        <v>0.04100753414354396</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.6476651354505</v>
+        <v>73.19890333333333</v>
       </c>
       <c r="N5">
-        <v>39.6476651354505</v>
+        <v>219.59671</v>
       </c>
       <c r="O5">
-        <v>0.5143171353280561</v>
+        <v>0.6596328743217019</v>
       </c>
       <c r="P5">
-        <v>0.5143171353280561</v>
+        <v>0.6596328743217019</v>
       </c>
       <c r="Q5">
-        <v>48.3777360740352</v>
+        <v>90.69424641793665</v>
       </c>
       <c r="R5">
-        <v>48.3777360740352</v>
+        <v>816.2482177614299</v>
       </c>
       <c r="S5">
-        <v>0.03689213083498066</v>
+        <v>0.02704991761595123</v>
       </c>
       <c r="T5">
-        <v>0.03689213083498066</v>
+        <v>0.02704991761595123</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.22019130026345</v>
+        <v>1.239011</v>
       </c>
       <c r="H6">
-        <v>1.22019130026345</v>
+        <v>3.717033</v>
       </c>
       <c r="I6">
-        <v>0.0717303163765856</v>
+        <v>0.04100753414354395</v>
       </c>
       <c r="J6">
-        <v>0.0717303163765856</v>
+        <v>0.04100753414354396</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.56537544410517</v>
+        <v>9.661646333333335</v>
       </c>
       <c r="N6">
-        <v>9.56537544410517</v>
+        <v>28.984939</v>
       </c>
       <c r="O6">
-        <v>0.1240838894280982</v>
+        <v>0.08706605224007774</v>
       </c>
       <c r="P6">
-        <v>0.1240838894280982</v>
+        <v>0.08706605224007773</v>
       </c>
       <c r="Q6">
-        <v>11.67158790065076</v>
+        <v>11.97088608510967</v>
       </c>
       <c r="R6">
-        <v>11.67158790065076</v>
+        <v>107.737974765987</v>
       </c>
       <c r="S6">
-        <v>0.008900576645914747</v>
+        <v>0.00357036410997857</v>
       </c>
       <c r="T6">
-        <v>0.008900576645914747</v>
+        <v>0.00357036410997857</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.22019130026345</v>
+        <v>1.239011</v>
       </c>
       <c r="H7">
-        <v>1.22019130026345</v>
+        <v>3.717033</v>
       </c>
       <c r="I7">
-        <v>0.0717303163765856</v>
+        <v>0.04100753414354395</v>
       </c>
       <c r="J7">
-        <v>0.0717303163765856</v>
+        <v>0.04100753414354396</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.8749318251773</v>
+        <v>28.10860633333333</v>
       </c>
       <c r="N7">
-        <v>27.8749318251773</v>
+        <v>84.325819</v>
       </c>
       <c r="O7">
-        <v>0.3615989752438457</v>
+        <v>0.2533010734382203</v>
       </c>
       <c r="P7">
-        <v>0.3615989752438457</v>
+        <v>0.2533010734382204</v>
       </c>
       <c r="Q7">
-        <v>34.01274930851811</v>
+        <v>34.82687244166966</v>
       </c>
       <c r="R7">
-        <v>34.01274930851811</v>
+        <v>313.441851975027</v>
       </c>
       <c r="S7">
-        <v>0.0259376088956902</v>
+        <v>0.01038725241761415</v>
       </c>
       <c r="T7">
-        <v>0.0259376088956902</v>
+        <v>0.01038725241761416</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.89566280573442</v>
+        <v>2.136972666666667</v>
       </c>
       <c r="H8">
-        <v>1.89566280573442</v>
+        <v>6.410918000000001</v>
       </c>
       <c r="I8">
-        <v>0.1114386676657155</v>
+        <v>0.07072736205905639</v>
       </c>
       <c r="J8">
-        <v>0.1114386676657155</v>
+        <v>0.0707273620590564</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.6476651354505</v>
+        <v>73.19890333333333</v>
       </c>
       <c r="N8">
-        <v>39.6476651354505</v>
+        <v>219.59671</v>
       </c>
       <c r="O8">
-        <v>0.5143171353280561</v>
+        <v>0.6596328743217019</v>
       </c>
       <c r="P8">
-        <v>0.5143171353280561</v>
+        <v>0.6596328743217019</v>
       </c>
       <c r="Q8">
-        <v>75.15860413148684</v>
+        <v>156.4240556533089</v>
       </c>
       <c r="R8">
-        <v>75.15860413148684</v>
+        <v>1407.81650087978</v>
       </c>
       <c r="S8">
-        <v>0.05731481631860607</v>
+        <v>0.04665409312820705</v>
       </c>
       <c r="T8">
-        <v>0.05731481631860607</v>
+        <v>0.04665409312820706</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.89566280573442</v>
+        <v>2.136972666666667</v>
       </c>
       <c r="H9">
-        <v>1.89566280573442</v>
+        <v>6.410918000000001</v>
       </c>
       <c r="I9">
-        <v>0.1114386676657155</v>
+        <v>0.07072736205905639</v>
       </c>
       <c r="J9">
-        <v>0.1114386676657155</v>
+        <v>0.0707273620590564</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.56537544410517</v>
+        <v>9.661646333333335</v>
       </c>
       <c r="N9">
-        <v>9.56537544410517</v>
+        <v>28.984939</v>
       </c>
       <c r="O9">
-        <v>0.1240838894280982</v>
+        <v>0.08706605224007774</v>
       </c>
       <c r="P9">
-        <v>0.1240838894280982</v>
+        <v>0.08706605224007773</v>
       </c>
       <c r="Q9">
-        <v>18.13272645227553</v>
+        <v>20.64667412933356</v>
       </c>
       <c r="R9">
-        <v>18.13272645227553</v>
+        <v>185.820067164002</v>
       </c>
       <c r="S9">
-        <v>0.01382774331664722</v>
+        <v>0.006157952199836695</v>
       </c>
       <c r="T9">
-        <v>0.01382774331664722</v>
+        <v>0.006157952199836696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.89566280573442</v>
+        <v>2.136972666666667</v>
       </c>
       <c r="H10">
-        <v>1.89566280573442</v>
+        <v>6.410918000000001</v>
       </c>
       <c r="I10">
-        <v>0.1114386676657155</v>
+        <v>0.07072736205905639</v>
       </c>
       <c r="J10">
-        <v>0.1114386676657155</v>
+        <v>0.0707273620590564</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.8749318251773</v>
+        <v>28.10860633333333</v>
       </c>
       <c r="N10">
-        <v>27.8749318251773</v>
+        <v>84.325819</v>
       </c>
       <c r="O10">
-        <v>0.3615989752438457</v>
+        <v>0.2533010734382203</v>
       </c>
       <c r="P10">
-        <v>0.3615989752438457</v>
+        <v>0.2533010734382204</v>
       </c>
       <c r="Q10">
-        <v>52.84147147337128</v>
+        <v>60.06732343242689</v>
       </c>
       <c r="R10">
-        <v>52.84147147337128</v>
+        <v>540.605910891842</v>
       </c>
       <c r="S10">
-        <v>0.04029610803046221</v>
+        <v>0.01791531673101264</v>
       </c>
       <c r="T10">
-        <v>0.04029610803046221</v>
+        <v>0.01791531673101265</v>
       </c>
     </row>
   </sheetData>
